--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -765,10 +765,10 @@
         <v>2.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -795,7 +795,7 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -813,7 +813,7 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -891,10 +891,10 @@
         <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -953,10 +953,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -1505,10 +1505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1690,7 +1690,7 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1872,7 +1872,7 @@
         <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2254,13 +2254,13 @@
         <v>7</v>
       </c>
       <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
         <v>29</v>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2284,34 +2284,34 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
@@ -2329,19 +2329,19 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>301</v>
@@ -2451,10 +2451,10 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2603,10 +2603,10 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2615,19 +2615,19 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2648,16 +2648,16 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2684,7 +2684,7 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2767,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -2830,16 +2830,16 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2949,22 +2949,22 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -3078,7 +3078,7 @@
         <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3492,13 +3492,13 @@
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
@@ -3525,19 +3525,19 @@
         <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
@@ -3558,7 +3558,7 @@
         <v>1250</v>
       </c>
       <c r="AH17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3579,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
         <v>34</v>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.1</v>
@@ -3668,7 +3668,7 @@
         <v>2.15</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
         <v>1.98</v>
@@ -3680,37 +3680,37 @@
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
         <v>13</v>
@@ -3719,73 +3719,73 @@
         <v>55</v>
       </c>
       <c r="AA18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>6.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG18" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI18" t="n">
         <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN18" t="n">
         <v>5.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR18" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS18" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AV18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX18" t="n">
         <v>12</v>
@@ -3797,7 +3797,7 @@
         <v>50</v>
       </c>
       <c r="BA18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB18" t="n">
         <v>400</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3883,25 +3883,25 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3919,7 +3919,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3928,7 +3928,7 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>41</v>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3952,7 +3952,7 @@
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -3973,10 +3973,10 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1589,7 +1589,7 @@
         <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -1616,7 +1616,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1690,7 +1690,7 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1857,10 +1857,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,7 +1869,7 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
         <v>1.57</v>
@@ -2403,10 +2403,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2484,10 +2484,10 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2567,34 +2567,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.5</v>
@@ -2603,10 +2603,10 @@
         <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
         <v>2.1</v>
@@ -2615,19 +2615,19 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
@@ -2657,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2684,7 +2684,7 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2934,16 +2934,16 @@
         <v>2.63</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
@@ -2961,22 +2961,22 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
@@ -2991,28 +2991,28 @@
         <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3024,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
         <v>23</v>
@@ -3048,10 +3048,10 @@
         <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>41</v>
@@ -3063,7 +3063,7 @@
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
@@ -3072,7 +3072,7 @@
         <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
         <v>351</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3173,7 +3173,7 @@
         <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
@@ -3194,13 +3194,13 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>29</v>
@@ -3218,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>41</v>
@@ -3239,7 +3239,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3477,16 +3477,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
@@ -3495,34 +3495,34 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W17" t="n">
         <v>7.5</v>
@@ -3534,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
         <v>29</v>
@@ -3543,25 +3543,25 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>6</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3576,28 +3576,28 @@
         <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
         <v>101</v>
       </c>
       <c r="AS17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>67</v>
@@ -3659,148 +3659,148 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3841,13 +3841,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
@@ -3859,10 +3859,10 @@
         <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -3883,25 +3883,25 @@
         <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>29</v>
@@ -3919,7 +3919,7 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>23</v>
@@ -3964,7 +3964,7 @@
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>5.5</v>
@@ -3973,7 +3973,7 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1699,22 +1699,22 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1726,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1735,40 +1735,40 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1783,22 +1783,22 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.88</v>
       </c>
       <c r="J8" t="n">
         <v>3.5</v>
@@ -1854,13 +1854,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1869,10 +1869,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1905,7 +1905,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>5.5</v>
@@ -1920,16 +1920,16 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -1941,7 +1941,7 @@
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
@@ -2030,7 +2030,7 @@
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
@@ -2042,13 +2042,13 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
         <v>2.35</v>
@@ -2141,7 +2141,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
@@ -2156,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2221,10 +2221,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.9</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,16 +2427,16 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2466,10 +2466,10 @@
         <v>351</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2478,7 +2478,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2490,10 +2490,10 @@
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2511,16 +2511,16 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
@@ -2582,13 +2582,13 @@
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2675,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2767,10 +2767,10 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.5</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3295,16 +3295,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
         <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
@@ -3316,7 +3316,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.17</v>
@@ -3337,10 +3337,10 @@
         <v>3.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
         <v>9</v>
@@ -3352,10 +3352,10 @@
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>21</v>
@@ -3364,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3385,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="AK16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3394,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
         <v>7.5</v>
@@ -3418,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
         <v>7.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
         <v>101</v>
@@ -3448,177 +3448,177 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8IFiFYon</t>
+          <t>tA6HgoO8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>10/11/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Tepatitlan de Morelos</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT17" t="n">
         <v>2.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.38</v>
-      </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>5.7</v>
       </c>
       <c r="AX17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="BC17" t="n">
         <v>51</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>8IFiFYon</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,76 +3650,76 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3731,76 +3731,76 @@
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>6.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>51</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,98 +3822,98 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W19" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>51</v>
@@ -3922,43 +3922,43 @@
         <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>19</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
       <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
         <v>34</v>
       </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
@@ -3967,27 +3967,209 @@
         <v>67</v>
       </c>
       <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AX20" t="n">
         <v>21</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="AY20" t="n">
         <v>34</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="AZ20" t="n">
         <v>67</v>
       </c>
-      <c r="BA19" t="n">
+      <c r="BA20" t="n">
         <v>101</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BB20" t="n">
         <v>251</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BC20" t="n">
         <v>81</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,21 +704,11 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fycRXpkL</t>
+          <t>xjDW12Ug</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +718,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Nakhon Pathom</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
         <v>8.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="K2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -764,49 +764,49 @@
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z2" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE2" t="n">
         <v>19.5</v>
@@ -815,25 +815,25 @@
         <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
         <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>250</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>3.3</v>
@@ -851,10 +851,10 @@
         <v>35</v>
       </c>
       <c r="AS2" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU2" t="n">
         <v>8.25</v>
@@ -863,22 +863,22 @@
         <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ2" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA2" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BB2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -746,49 +746,49 @@
         <v>8.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.45</v>
       </c>
       <c r="R2" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.26</v>
       </c>
       <c r="T2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
         <v>8.75</v>
@@ -797,16 +797,16 @@
         <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>19.5</v>
@@ -815,7 +815,7 @@
         <v>75</v>
       </c>
       <c r="AG2" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -833,28 +833,28 @@
         <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AP2" t="n">
         <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AR2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS2" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>8.25</v>
@@ -875,7 +875,7 @@
         <v>300</v>
       </c>
       <c r="BA2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB2" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -737,34 +737,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="L2" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Q2" t="n">
         <v>1.45</v>
@@ -776,7 +776,7 @@
         <v>1.26</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="U2" t="n">
         <v>1.78</v>
@@ -788,25 +788,25 @@
         <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE2" t="n">
         <v>19.5</v>
@@ -821,28 +821,28 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
         <v>250</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO2" t="n">
         <v>5.6</v>
       </c>
       <c r="AP2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>13.5</v>
@@ -854,7 +854,7 @@
         <v>150</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU2" t="n">
         <v>8.25</v>
@@ -863,22 +863,22 @@
         <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY2" t="n">
         <v>45</v>
       </c>
-      <c r="AY2" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BA2" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -737,46 +737,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H2" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="J2" t="n">
         <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="L2" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="U2" t="n">
         <v>1.78</v>
@@ -788,13 +788,13 @@
         <v>9.25</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y2" t="n">
         <v>8.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
@@ -803,40 +803,40 @@
         <v>22</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
         <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>250</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO2" t="n">
         <v>5.6</v>
@@ -854,31 +854,31 @@
         <v>150</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AY2" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AZ2" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB2" t="n">
         <v>400</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xjDW12Ug</t>
+          <t>8IFiFYon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,167 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nakhon Pathom</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.29</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>8.75</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.67</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>7</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.75</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.6</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.5</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>400</v>
+        <v>301</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8IFiFYon</t>
+          <t>G6XVkCH8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,354 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.25</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>1.57</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>2.25</v>
       </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
         <v>13</v>
       </c>
-      <c r="Z2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AF2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
         <v>23</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AN2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8IFiFYon</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
         <v>23</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN3" t="n">
         <v>5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO3" t="n">
         <v>21</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP3" t="n">
         <v>34</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ3" t="n">
         <v>67</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR3" t="n">
         <v>101</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS3" t="n">
         <v>351</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>9</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX3" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY3" t="n">
         <v>15</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ3" t="n">
         <v>29</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA3" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC3" t="n">
         <v>301</v>
       </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -831,13 +831,13 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>19</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G6XVkCH8</t>
+          <t>nygQ2VMF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.3</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.65</v>
-      </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.57</v>
       </c>
-      <c r="V2" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AN2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY2" t="n">
         <v>23</v>
       </c>
-      <c r="AL2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AZ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA2" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>41</v>
-      </c>
       <c r="BB2" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8IFiFYon</t>
+          <t>W0WFVFMb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,29 +910,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.35</v>
@@ -947,10 +947,10 @@
         <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -977,7 +977,7 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -986,7 +986,7 @@
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
         <v>34</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -1040,7 +1040,7 @@
         <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
@@ -1052,30 +1052,576 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G6XVkCH8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DENMARK - 1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8IFiFYon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
         <v>67</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>51</v>
       </c>
-      <c r="AX3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY3" t="n">
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obk4TfWF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
         <v>15</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BB3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD3" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -771,16 +771,16 @@
         <v>7.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
         <v>7.5</v>
@@ -879,7 +879,7 @@
         <v>8.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -953,16 +953,16 @@
         <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1135,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1623,6 +1623,188 @@
       </c>
       <c r="BD6" t="n">
         <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
         <v>2.35</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -965,19 +965,19 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.57</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -992,19 +992,19 @@
         <v>34</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
         <v>126</v>
@@ -1046,16 +1046,16 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1135,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8IFiFYon</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
       </c>
       <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
         <v>21</v>
       </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>8IFiFYon</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1517,34 +1517,34 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
         <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,40 +1553,40 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1595,22 +1595,22 @@
         <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,354 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ8" t="n">
         <v>34</v>
       </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT8" t="n">
         <v>2.63</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
         <v>26</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>126</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>251</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,16 +1135,16 @@
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8IFiFYon</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1499,16 +1499,16 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1517,34 +1517,34 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,40 +1553,40 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
       </c>
       <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>10</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1595,22 +1595,22 @@
         <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>Wj3sKyQp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,354 +1638,172 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
         <v>6.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>81</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>126</v>
       </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Wj3sKyQp</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dep. La Coruna</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -789,19 +789,19 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
         <v>67</v>
@@ -810,7 +810,7 @@
         <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>7.5</v>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>7.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -873,13 +873,13 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AX2" t="n">
         <v>8.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -1123,28 +1123,28 @@
         <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1177,19 +1177,19 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1198,10 +1198,10 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>4.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1231,7 +1231,7 @@
         <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1258,7 +1258,7 @@
         <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
@@ -965,7 +965,7 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T3" t="n">
         <v>2.2</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G6XVkCH8</t>
+          <t>Ic6tHG75</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
       </c>
       <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>G6XVkCH8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,152 +1274,152 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
         <v>11</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AI5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1434,19 +1434,19 @@
         <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,167 +1456,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
         <v>8.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,172 +1638,354 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>81</v>
       </c>
-      <c r="BA7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -783,25 +783,25 @@
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>67</v>
@@ -810,7 +810,7 @@
         <v>51</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC2" t="n">
         <v>7.5</v>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>7.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -873,13 +873,13 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX2" t="n">
         <v>8.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>29</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W0WFVFMb</t>
+          <t>viTNEGHl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
         <v>34</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="BA3" t="n">
         <v>126</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ic6tHG75</t>
+          <t>W0WFVFMb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.25</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>10</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AK4" t="n">
         <v>21</v>
       </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G6XVkCH8</t>
+          <t>Ic6tHG75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.67</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
         <v>11</v>
       </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL5" t="n">
         <v>26</v>
       </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>G6XVkCH8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,155 +1456,155 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="AI6" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1616,19 +1616,19 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,167 +1638,167 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>8.5</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>51</v>
       </c>
-      <c r="AC7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>126</v>
-      </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
         <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,172 +1820,354 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
         <v>2.38</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Q8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.6</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO9" t="n">
         <v>9</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ9" t="n">
         <v>29</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR9" t="n">
         <v>51</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS9" t="n">
         <v>151</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT9" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX9" t="n">
         <v>26</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ9" t="n">
         <v>101</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA9" t="n">
         <v>126</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB9" t="n">
         <v>251</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,13 +762,13 @@
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>viTNEGHl</t>
+          <t>tbhU1kxM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,110 +910,110 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.2</v>
       </c>
-      <c r="I3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.5</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI3" t="n">
         <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1025,64 +1025,64 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
       </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>81</v>
-      </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W0WFVFMb</t>
+          <t>YXlM3B79</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,155 +1092,155 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.25</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
         <v>201</v>
       </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
         <v>5</v>
       </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1252,19 +1252,19 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ic6tHG75</t>
+          <t>viTNEGHl</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,131 +1274,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>15</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO5" t="n">
         <v>11</v>
       </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1410,43 +1410,43 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
         <v>81</v>
       </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G6XVkCH8</t>
+          <t>W0WFVFMb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>15</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>10</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>13</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>21</v>
       </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
         <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>Ic6tHG75</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>9.5</v>
       </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
         <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>G6XVkCH8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
         <v>41</v>
       </c>
-      <c r="AA8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>10</v>
       </c>
       <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
         <v>19</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AQ8" t="n">
         <v>41</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>41</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,59 +2002,59 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>2.8</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,76 +2063,76 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>17</v>
       </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
+      <c r="AP9" t="n">
         <v>23</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
@@ -2141,33 +2141,397 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Obk4TfWF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX11" t="n">
         <v>26</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY11" t="n">
         <v>34</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ11" t="n">
         <v>101</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA11" t="n">
         <v>126</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB11" t="n">
         <v>251</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC11" t="n">
         <v>81</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -789,22 +789,22 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
@@ -816,13 +816,13 @@
         <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -846,19 +846,19 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS2" t="n">
         <v>501</v>
@@ -873,16 +873,16 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
         <v>26</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -1693,10 +1693,10 @@
         <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -2057,7 +2057,7 @@
         <v>1.95</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
         <v>2.75</v>
@@ -2221,22 +2221,22 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
         <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,28 +759,28 @@
         <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>12</v>
@@ -873,13 +873,13 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX2" t="n">
         <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>26</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
@@ -1490,25 +1490,25 @@
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.62</v>
@@ -1556,7 +1556,7 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
         <v>9.5</v>
@@ -1580,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>81</v>
@@ -1616,7 +1616,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1693,10 +1693,10 @@
         <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>G6XVkCH8</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,155 +1820,155 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.73</v>
       </c>
-      <c r="R8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
         <v>19</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>21</v>
@@ -1980,19 +1980,19 @@
         <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,167 +2002,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>Wj3sKyQp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,354 +2184,172 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.5</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>17</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>81</v>
       </c>
-      <c r="AR10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
         <v>81</v>
       </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
       <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Wj3sKyQp</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Dep. La Coruna</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1.53</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -813,13 +813,13 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>101</v>
@@ -852,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>201</v>
@@ -1141,10 +1141,10 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>1.62</v>
@@ -1517,13 +1517,13 @@
         <v>2.2</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1532,13 +1532,13 @@
         <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
         <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>81</v>
@@ -1556,19 +1556,19 @@
         <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1580,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
         <v>126</v>
@@ -1601,19 +1601,19 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1675,10 +1675,10 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -2027,16 +2027,16 @@
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J9" t="n">
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.13</v>
@@ -2045,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>15</v>
@@ -2096,7 +2096,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>351</v>
@@ -2108,10 +2108,10 @@
         <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>23</v>
@@ -2126,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>81</v>
@@ -2153,16 +2153,16 @@
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2263,7 +2263,7 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
@@ -2275,13 +2275,13 @@
         <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2305,7 +2305,7 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2338,10 +2338,10 @@
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Obk4TfWF</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,47 +2002,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.57</v>
@@ -2063,76 +2063,76 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
         <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>51</v>
       </c>
       <c r="AC9" t="n">
         <v>5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>1250</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
         <v>351</v>
@@ -2147,19 +2147,19 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Obk4TfWF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,172 +2184,354 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.2</v>
       </c>
-      <c r="L10" t="n">
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="n">
         <v>5.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
         <v>126</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB11" t="n">
         <v>251</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC11" t="n">
         <v>81</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nygQ2VMF</t>
+          <t>tbhU1kxM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,85 +738,85 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Velez Sarsfield</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1.53</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.5</v>
       </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
         <v>21</v>
       </c>
-      <c r="Z2" t="n">
-        <v>81</v>
-      </c>
       <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
         <v>51</v>
       </c>
-      <c r="AB2" t="n">
-        <v>67</v>
-      </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -825,82 +825,82 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB2" t="n">
         <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tbhU1kxM</t>
+          <t>YXlM3B79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,169 +920,169 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YXlM3B79</t>
+          <t>viTNEGHl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,128 +1092,128 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>1250</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,43 +1228,43 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC4" t="n">
         <v>81</v>
       </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>viTNEGHl</t>
+          <t>Ic6tHG75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,131 +1274,131 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>1250</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1410,43 +1410,43 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W0WFVFMb</t>
+          <t>lK95F3W0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
         <v>81</v>
       </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
         <v>5</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AX6" t="n">
         <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ic6tHG75</t>
+          <t>K8FqZP1I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H8" t="n">
         <v>2.8</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.2</v>
       </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>19</v>
-      </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SlBBcd9a</t>
+          <t>Wj3sKyQp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,536 +2002,172 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.83</v>
       </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>10</v>
       </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>26</v>
       </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>7</v>
       </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AX9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AZ9" t="n">
         <v>101</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Obk4TfWF</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Otelul</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CFR Cluj</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Wj3sKyQp</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Dep. La Coruna</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>7</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.25</v>
@@ -1705,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
@@ -1726,10 +1726,10 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1744,10 +1744,10 @@
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1783,10 +1783,10 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>viTNEGHl</t>
+          <t>j9aH4ih3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.95</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
         <v>201</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ic6tHG75</t>
+          <t>CI0D5Xxc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN5" t="n">
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>67</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>51</v>
-      </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lK95F3W0</t>
+          <t>viTNEGHl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,92 +1456,92 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.25</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,46 +1553,46 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
         <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>W42VXeOQ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SlBBcd9a</t>
+          <t>YDlcTFWs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,116 +1820,116 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1938,61 +1938,61 @@
         <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wj3sKyQp</t>
+          <t>Ic6tHG75</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,95 +2002,95 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2099,46 +2099,46 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
       </c>
-      <c r="AH9" t="n">
-        <v>29</v>
-      </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>26</v>
-      </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2147,28 +2147,574 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lK95F3W0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
         <v>7</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
         <v>29</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
         <v>126</v>
       </c>
-      <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>K8FqZP1I</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SlBBcd9a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
         <v>81</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="AG12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
         <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1177,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -1210,10 +1210,10 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -2063,10 +2063,10 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
@@ -2227,10 +2227,10 @@
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -2275,16 +2275,16 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2311,7 +2311,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2338,13 +2338,13 @@
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K8FqZP1I</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,354 +2366,172 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.2</v>
       </c>
-      <c r="L11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
         <v>11</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>9</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SlBBcd9a</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2045,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2069,16 +2069,16 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,34 +2102,34 @@
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2141,19 +2141,19 @@
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
         <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -753,7 +753,7 @@
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -777,16 +777,16 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
@@ -810,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>101</v>
@@ -947,13 +947,13 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
         <v>3.25</v>
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
         <v>2.5</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1308,19 +1308,19 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1395,10 +1395,10 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1475,40 +1475,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,7 +1523,7 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>8.5</v>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1550,13 +1550,13 @@
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
         <v>15</v>
@@ -1565,16 +1565,16 @@
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1613,7 +1613,7 @@
         <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1669,16 +1669,16 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L7" t="n">
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>34</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
@@ -2036,25 +2036,25 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2069,10 +2069,10 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -2126,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -777,10 +777,10 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.73</v>
@@ -932,7 +932,7 @@
         <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>3.25</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,16 +971,16 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -1025,7 +1025,7 @@
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
@@ -1043,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1129,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>2.5</v>
@@ -1311,16 +1311,16 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1481,25 +1481,25 @@
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>2.75</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1595,7 +1595,7 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1669,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L7" t="n">
         <v>3.25</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SlBBcd9a</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,143 +2366,143 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.38</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.62</v>
       </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2511,27 +2511,209 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
       </c>
       <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SlBBcd9a</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>51</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="AM12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -786,7 +786,7 @@
         <v>1.73</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -932,7 +932,7 @@
         <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>3.25</v>
@@ -944,7 +944,7 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -953,34 +953,34 @@
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -989,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
@@ -1019,13 +1019,13 @@
         <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1043,13 +1043,13 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1064,13 +1064,13 @@
         <v>29</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA3" t="n">
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1675,10 +1675,10 @@
         <v>3.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1863,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
         <v>2.1</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ic6tHG75</t>
+          <t>lK95F3W0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:10</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.1</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
         <v>13</v>
       </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>29</v>
       </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AM9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lK95F3W0</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,37 +2194,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2233,37 +2233,37 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2281,67 +2281,67 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
         <v>17</v>
       </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARJPKb8t</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,143 +2366,143 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.83</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
       <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
         <v>5.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2511,209 +2511,27 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SlBBcd9a</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1308,7 +1308,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1395,10 +1395,10 @@
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>viTNEGHl</t>
+          <t>W42VXeOQ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,154 +1466,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10</v>
       </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W42VXeOQ</t>
+          <t>YDlcTFWs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,55 +1648,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.1</v>
@@ -1705,100 +1705,100 @@
         <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="n">
         <v>15</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AB7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY7" t="n">
         <v>41</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AZ7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
         <v>351</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YDlcTFWs</t>
+          <t>lK95F3W0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,65 +1820,65 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1890,109 +1890,109 @@
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
         <v>34</v>
       </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA8" t="n">
         <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lK95F3W0</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,37 +2012,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2051,37 +2051,37 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2090,76 +2090,76 @@
         <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI9" t="n">
         <v>17</v>
       </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK9" t="n">
         <v>41</v>
       </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ARJPKb8t</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,143 +2184,143 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AU10" t="n">
         <v>9.5</v>
@@ -2329,209 +2329,27 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SlBBcd9a</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tbhU1kxM</t>
+          <t>j9aH4ih3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,154 +738,154 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.25</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>34</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>51</v>
-      </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YXlM3B79</t>
+          <t>CI0D5Xxc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,97 +920,97 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.62</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1025,64 +1025,64 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>67</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j9aH4ih3</t>
+          <t>W42VXeOQ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,42 +1097,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1153,25 +1153,25 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,91 +1180,91 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>67</v>
       </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>81</v>
       </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CI0D5Xxc</t>
+          <t>YDlcTFWs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1279,174 +1279,174 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.44</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH5" t="n">
         <v>26</v>
       </c>
-      <c r="AA5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AI5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>29</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W42VXeOQ</t>
+          <t>lK95F3W0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,59 +1456,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1523,73 +1523,73 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6</v>
       </c>
-      <c r="AD6" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.25</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YDlcTFWs</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,113 +1638,113 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brusque</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
         <v>5.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
         <v>41</v>
@@ -1753,46 +1753,46 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
@@ -1801,16 +1801,16 @@
         <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lK95F3W0</t>
+          <t>SlBBcd9a</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,149 +1820,149 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
         <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>81</v>
@@ -1983,373 +1983,9 @@
         <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ARJPKb8t</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>America De Cali</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SlBBcd9a</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1317,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1526,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1547,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
         <v>21</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1687,10 +1687,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -834,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1317,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,16 +1505,16 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1526,73 +1526,73 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" t="n">
         <v>9</v>
       </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
         <v>19</v>
       </c>
-      <c r="AA6" t="n">
-        <v>21</v>
-      </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>900</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1854,13 +1854,13 @@
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
@@ -1875,10 +1875,10 @@
         <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
         <v>2.25</v>
@@ -1896,7 +1896,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1956,7 +1956,7 @@
         <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -753,7 +753,7 @@
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -765,10 +765,10 @@
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -977,7 +977,7 @@
         <v>1.62</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>26</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1007,16 +1007,16 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1028,7 +1028,7 @@
         <v>501</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>17</v>
@@ -1043,7 +1043,7 @@
         <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1159,16 +1159,16 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>5.5</v>
@@ -1192,16 +1192,16 @@
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1219,10 +1219,10 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1237,10 +1237,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1335,22 +1335,22 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,22 +1359,22 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1383,7 +1383,7 @@
         <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1395,13 +1395,13 @@
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,7 +1419,7 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1532,10 +1532,10 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
         <v>17</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1571,7 +1571,7 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>3.75</v>
@@ -1604,13 +1604,13 @@
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1726,7 +1726,7 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
@@ -1738,7 +1738,7 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
@@ -1756,10 +1756,10 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -798,16 +798,16 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -825,16 +825,16 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,22 +846,22 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
@@ -944,43 +944,43 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>6.5</v>
@@ -1013,13 +1013,13 @@
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1043,34 +1043,34 @@
         <v>101</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA3" t="n">
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2.25</v>
@@ -1123,7 +1123,7 @@
         <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>3.1</v>
@@ -1135,10 +1135,10 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1180,7 +1180,7 @@
         <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1219,13 +1219,13 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
@@ -1246,7 +1246,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1675,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1687,10 +1687,10 @@
         <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1805,188 +1805,6 @@
       </c>
       <c r="BD7" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SlBBcd9a</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>26</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -932,7 +932,7 @@
         <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.8</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1019,7 +1019,7 @@
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,13 +1126,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,16 +1141,16 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1210,7 +1210,7 @@
         <v>351</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>101</v>
@@ -1228,7 +1228,7 @@
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1359,10 +1359,10 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,13 +1371,13 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1392,7 +1392,7 @@
         <v>1250</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>8</v>
@@ -1422,16 +1422,16 @@
         <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lK95F3W0</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:20</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,37 +1466,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,34 +1517,34 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1559,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1571,10 +1571,10 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1589,22 +1589,22 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1622,188 +1622,6 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ARJPKb8t</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>America De Cali</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1493,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1526,7 +1526,7 @@
         <v>5.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1574,7 +1574,7 @@
         <v>201</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
@@ -1604,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>j9aH4ih3</t>
+          <t>ARJPKb8t</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -771,10 +771,10 @@
         <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -783,31 +783,31 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,28 +816,28 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,764 +864,36 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CI0D5Xxc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Instituto</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W42VXeOQ</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Coritiba</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Santos</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>YDlcTFWs</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Paysandu PA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Brusque</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ARJPKb8t</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>America De Cali</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
@@ -765,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -822,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARJPKb8t</t>
+          <t>nygQ2VMF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,3449 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="AI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT2" t="n">
         <v>2.5</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AU2" t="n">
         <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tbhU1kxM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>YXlM3B79</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>j9aH4ih3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CI0D5Xxc</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>viTNEGHl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W42VXeOQ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YDlcTFWs</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE B</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Paysandu PA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Brusque</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W0WFVFMb</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ic6tHG75</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lK95F3W0</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20:20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ARJPKb8t</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>G6XVkCH8</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DENMARK - 1ST DIVISION</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>K8FqZP1I</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ECUADOR - LIGA PRO</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Imbabura</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dep. Cuenca</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fycRXpkL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Club Tijuana</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SlBBcd9a</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2 de Mayo</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8IFiFYon</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gloria Buzau</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Obk4TfWF</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Otelul</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Wj3sKyQp</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
